--- a/simulations/cleaned_inclusion_exclusion/Leenaars_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Leenaars_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>592</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>302</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>588</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>299.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>608</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>586</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>294.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>39</v>
       </c>
       <c r="C6">
-        <v>620</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>329.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>605</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>320</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>54</v>
       </c>
       <c r="C8">
-        <v>629</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>341.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>619</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>329.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>580</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>294</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>577</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>289</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>599</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>311</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>68</v>
       </c>
       <c r="C13">
-        <v>653</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>360.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,10 +579,10 @@
         <v>4003</v>
       </c>
       <c r="C14">
-        <v>578</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>578</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>587</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>298.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>296.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>157</v>
       </c>
       <c r="C17">
-        <v>729</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>443</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>304.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,7 +649,7 @@
         <v>31.875</v>
       </c>
       <c r="C19">
-        <v>607.9411764705883</v>
+        <v>29.23529411764706</v>
       </c>
     </row>
   </sheetData>
